--- a/Initialization/schemas/environment_schema.xlsx
+++ b/Initialization/schemas/environment_schema.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MiniACE\Initialization\schemas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="10650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="environment" sheetId="1" r:id="rId1"/>
     <sheet name="environment.xml" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,26 +24,32 @@
   <connection id="1" name="environment" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\environment.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Firm" type="4" refreshedVersion="0" background="1">
+  <connection id="2" name="environment1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\environment.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" name="environment2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\environment.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="4" name="Firm" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" name="Firm1" type="4" refreshedVersion="0" background="1">
+  <connection id="5" name="Firm1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" name="Firm2" type="4" refreshedVersion="0" background="1">
+  <connection id="6" name="Firm2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" name="Firm3" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="Firm3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="Firm4" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="Firm4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>int</t>
   </si>
@@ -93,16 +94,19 @@
   </si>
   <si>
     <t>max_number_of_job_applications</t>
+  </si>
+  <si>
+    <t>6.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -155,22 +159,50 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -196,23 +228,86 @@
 </styleSheet>
 </file>
 
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema2">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="states">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="environment" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="total_regions" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="loan_repayment_period_months" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="carrol_index" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="wealth_to_income_ratio_target" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="short_term_loan_repayment_target" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="profit_accumulation_rate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="physical_capital_duration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="target_profit_rate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="profit_rate_weights" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="target_capacity_utilization" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="capacity_utilization_weights" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="bankruptcy_period" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="max_number_of_job_applications" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="2" Name="states_Map" RootElement="states" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:M2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M2" tableType="xml" totalsRowShown="0" headerRowDxfId="13" connectionId="3">
   <autoFilter ref="A1:M2"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="total_regions"/>
-    <tableColumn id="2" name="loan_repayment_period_months"/>
-    <tableColumn id="3" name="carrol_index"/>
-    <tableColumn id="4" name="wealth_to_income_ratio_target"/>
-    <tableColumn id="5" name="short_term_loan_repayment_target"/>
-    <tableColumn id="6" name="profit_accumulation_rate"/>
-    <tableColumn id="7" name="physical_capital_duration"/>
-    <tableColumn id="8" name="target_profit_rate"/>
-    <tableColumn id="9" name="profit_rate_weights" dataDxfId="4"/>
-    <tableColumn id="10" name="target_capacity_utilization" dataDxfId="3"/>
-    <tableColumn id="11" name="capacity_utilization_weights" dataDxfId="2"/>
-    <tableColumn id="12" name="bankruptcy_period" dataDxfId="1"/>
-    <tableColumn id="13" name="max_number_of_job_applications" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="total_regions" name="total_regions" dataDxfId="12">
+      <xmlColumnPr mapId="2" xpath="/states/environment/total_regions" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="loan_repayment_period_months" name="loan_repayment_period_months" dataDxfId="11">
+      <xmlColumnPr mapId="2" xpath="/states/environment/loan_repayment_period_months" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="carrol_index" name="carrol_index" dataDxfId="10">
+      <xmlColumnPr mapId="2" xpath="/states/environment/carrol_index" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="wealth_to_income_ratio_target" name="wealth_to_income_ratio_target" dataDxfId="9">
+      <xmlColumnPr mapId="2" xpath="/states/environment/wealth_to_income_ratio_target" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="short_term_loan_repayment_target" name="short_term_loan_repayment_target" dataDxfId="8">
+      <xmlColumnPr mapId="2" xpath="/states/environment/short_term_loan_repayment_target" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="profit_accumulation_rate" name="profit_accumulation_rate" dataDxfId="7">
+      <xmlColumnPr mapId="2" xpath="/states/environment/profit_accumulation_rate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="physical_capital_duration" name="physical_capital_duration" dataDxfId="6">
+      <xmlColumnPr mapId="2" xpath="/states/environment/physical_capital_duration" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="target_profit_rate" name="target_profit_rate" dataDxfId="5">
+      <xmlColumnPr mapId="2" xpath="/states/environment/target_profit_rate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="profit_rate_weights" name="profit_rate_weights" dataDxfId="4">
+      <xmlColumnPr mapId="2" xpath="/states/environment/profit_rate_weights" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="target_capacity_utilization" name="target_capacity_utilization" dataDxfId="3">
+      <xmlColumnPr mapId="2" xpath="/states/environment/target_capacity_utilization" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="capacity_utilization_weights" name="capacity_utilization_weights" dataDxfId="2">
+      <xmlColumnPr mapId="2" xpath="/states/environment/capacity_utilization_weights" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="bankruptcy_period" name="bankruptcy_period" dataDxfId="1">
+      <xmlColumnPr mapId="2" xpath="/states/environment/bankruptcy_period" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="max_number_of_job_applications" name="max_number_of_job_applications" dataDxfId="0">
+      <xmlColumnPr mapId="2" xpath="/states/environment/max_number_of_job_applications" xmlDataType="string"/>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -261,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -296,7 +391,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -473,21 +568,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -504,7 +599,7 @@
     <col min="13" max="13" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -545,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -586,44 +681,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:13">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>24</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>0.2</v>
       </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
         <v>0.2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>0.2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>24</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>0.05</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>0.01</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="7">
         <v>0.8</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <v>0.02</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="7">
         <v>120</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="7">
         <v>3</v>
       </c>
     </row>
@@ -634,20 +729,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="9" width="12" customWidth="1"/>
     <col min="10" max="64" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -672,63 +767,110 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:64">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>0.2</v>
       </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7">
         <v>0.2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>0.2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>0.05</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <v>0.01</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <v>0.8</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <v>0.02</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="7">
         <v>120</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="7">
         <v>3</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -776,7 +918,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64">
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -830,7 +972,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64">
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -884,7 +1026,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64">
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -938,114 +1080,6 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="4"/>
-      <c r="BI6" s="4"/>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="3"/>
-      <c r="BL6" s="3"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="3"/>
-      <c r="BL7" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
